--- a/testing_Bank.xlsx
+++ b/testing_Bank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\larlito\Desktop\testing_module2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BB6DF4-BA82-4BBB-9D8C-A8977414A0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF067FC-F0FF-4C8A-AA45-4EE9A3693E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>Аспект</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Корректность работы метода снятия средст</t>
   </si>
   <si>
-    <t>Корректность работы метода показать баланс</t>
-  </si>
-  <si>
     <t>Идентификатор</t>
   </si>
   <si>
@@ -92,31 +89,16 @@
     <t>ТС-006</t>
   </si>
   <si>
-    <t>ТС-007(н)</t>
-  </si>
-  <si>
     <t>ТС-008(н)</t>
   </si>
   <si>
     <t>Проверка работы с значением превышающим баланс</t>
   </si>
   <si>
-    <t>ТС-009(н)</t>
-  </si>
-  <si>
     <t>ТС-010</t>
   </si>
   <si>
     <t>Проверка работы с значением равным балансу</t>
-  </si>
-  <si>
-    <t>ТС-011</t>
-  </si>
-  <si>
-    <t>Корректность работы метода получить баланс</t>
-  </si>
-  <si>
-    <t>Проверка работы получения баланса</t>
   </si>
 </sst>
 </file>
@@ -385,10 +367,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -414,39 +396,37 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75">
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="B4" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="12.75">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="26.25" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1">
         <v>100</v>
@@ -460,19 +440,19 @@
     </row>
     <row r="10" spans="1:6" ht="24.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="1">
         <v>1000</v>
@@ -480,19 +460,19 @@
     </row>
     <row r="11" spans="1:6" ht="23.25" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1">
         <v>-100</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" s="1">
         <v>1000</v>
@@ -500,19 +480,19 @@
     </row>
     <row r="12" spans="1:6" ht="27.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="F12" s="1">
         <v>1000</v>
@@ -520,13 +500,13 @@
     </row>
     <row r="13" spans="1:6" ht="26.25" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1">
         <v>10000000000000</v>
@@ -540,13 +520,13 @@
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1">
         <v>100</v>
@@ -558,27 +538,27 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="25.5" customHeight="1">
+    <row r="15" spans="1:6" ht="24.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F15" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="24.75" customHeight="1">
+    <row r="16" spans="1:6" ht="23.25" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -589,118 +569,61 @@
         <v>25</v>
       </c>
       <c r="D16" s="1">
-        <v>1100</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>13</v>
+        <v>1000</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="24.75" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="1">
-        <v>-200</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="27.75" customHeight="1">
+    <row r="17" spans="2:2" ht="27.75" customHeight="1">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2" ht="23.25" customHeight="1">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:2" ht="22.5" customHeight="1">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="2:2" ht="23.25" customHeight="1">
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="23.25" customHeight="1">
+    <row r="21" spans="2:2" ht="24.75" customHeight="1">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="22.5" customHeight="1">
+    <row r="22" spans="2:2" ht="24" customHeight="1">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="23.25" customHeight="1">
+    <row r="23" spans="2:2" ht="25.5" customHeight="1">
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="24.75" customHeight="1">
+    <row r="24" spans="2:2" ht="24" customHeight="1">
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="24" customHeight="1">
+    <row r="25" spans="2:2" ht="23.25" customHeight="1">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="25.5" customHeight="1">
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" ht="24" customHeight="1">
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" ht="23.25" customHeight="1">
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" ht="23.25" customHeight="1"/>
-    <row r="30" spans="1:6" ht="22.5" customHeight="1"/>
-    <row r="31" spans="1:6" ht="24" customHeight="1"/>
-    <row r="32" spans="1:6" ht="24" customHeight="1"/>
-    <row r="33" spans="2:2" ht="28.5" customHeight="1"/>
-    <row r="34" spans="2:2" ht="25.5" customHeight="1"/>
-    <row r="35" spans="2:2" ht="24.75" customHeight="1"/>
-    <row r="36" spans="2:2" ht="24.75" customHeight="1"/>
-    <row r="37" spans="2:2" ht="26.25" customHeight="1">
+    <row r="26" spans="2:2" ht="23.25" customHeight="1"/>
+    <row r="27" spans="2:2" ht="22.5" customHeight="1"/>
+    <row r="28" spans="2:2" ht="24" customHeight="1"/>
+    <row r="29" spans="2:2" ht="24" customHeight="1"/>
+    <row r="30" spans="2:2" ht="28.5" customHeight="1"/>
+    <row r="31" spans="2:2" ht="25.5" customHeight="1"/>
+    <row r="32" spans="2:2" ht="24.75" customHeight="1"/>
+    <row r="33" spans="2:2" ht="24.75" customHeight="1"/>
+    <row r="34" spans="2:2" ht="26.25" customHeight="1">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="2:2" ht="24" customHeight="1">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="2:2" ht="23.25" customHeight="1">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="2:2" ht="23.25" customHeight="1">
       <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="2:2" ht="24" customHeight="1">
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="2:2" ht="23.25" customHeight="1">
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="2:2" ht="23.25" customHeight="1">
-      <c r="B40" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -720,7 +643,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
